--- a/daily_matches/job_matches_2026-02-27.xlsx
+++ b/daily_matches/job_matches_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Python Backend Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AIAEC</t>
+          <t>Colgate-Palmolive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -491,34 +491,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LangChain, RAG, LLaMA, Pinecone, FastAPI, Docker, CI/CD, GitHub Actions, Git, PostgreSQL</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, Docker, Kubernetes, CI/CD, Git, Python, SQL, R</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=dd2ecbef2465cf58</t>
+          <t>https://www.indeed.com/viewjob?jk=8347260a96645aa2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Agentic AI Architect</t>
+          <t>INFORMATION TECHNOLOGY SPECIALIST II</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ingram Micro</t>
+          <t>California State Personnel Board</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Irvine, CA, US USA</t>
+          <t>CA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -526,112 +526,112 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, LangChain, RAG, LLaMA, Gemini, Hugging Face, TensorFlow, PyTorch, Git</t>
+          <t>RAG, Prompt Engineering, YOLO, Glue, Redshift, CI/CD, Snowflake, Redshift, Power BI, Python</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=138e9d49a2bbc3d5</t>
+          <t>https://www.indeed.com/viewjob?jk=07cbf3a945c9cfd5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AI Agentics Engineer</t>
+          <t>Database Engineer II</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ClassLink, Inc.</t>
+          <t>Cvent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Tysons Corner, VA, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.4</v>
+        <v>12.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, Copilot, Docker, CI/CD, GitHub Actions, Git, PostgreSQL, Python, SQL</t>
+          <t>RAG, S3, Redshift, Redshift, MySQL, MongoDB, NoSQL, Python, SQL, R</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5930a08b3694c73c</t>
+          <t>https://www.indeed.com/viewjob?jk=8e6a5e86c2af0d5a</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Database Engineer II</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brivo</t>
+          <t>Cvent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lehi, UT, US USA</t>
+          <t>Tysons Corner, VA, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LangChain, RAG, Kubernetes, CI/CD, Jenkins, Git, PostgreSQL, SQL, R, Java</t>
+          <t>RAG, S3, Redshift, Redshift, MySQL, MongoDB, NoSQL, Python, SQL, R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=820df62559b0aff8</t>
+          <t>https://www.indeed.com/viewjob?jk=131e73fa50f53df2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Data Scientist II</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brivo</t>
+          <t>RealPage Inc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rollingwood, TX, US USA</t>
+          <t>Richardson, TX, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LangChain, RAG, Kubernetes, CI/CD, Jenkins, Git, PostgreSQL, SQL, R, Java</t>
+          <t>Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, CI/CD, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7a1d4927b41da111</t>
+          <t>https://www.indeed.com/viewjob?jk=f825a63f48aaa844</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Java Full Stack Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brivo</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bethesda, MD, US USA</t>
+          <t>Cincinnati, OH, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LangChain, RAG, Kubernetes, CI/CD, Jenkins, Git, PostgreSQL, SQL, R, Java</t>
+          <t>Data Scientist, Generative AI, RAG, AKS, CI/CD, GitHub Actions, Git, R, Java, Scala</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,392 +676,112 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d8044e0e1137fe68</t>
+          <t>https://www.indeed.com/viewjob?jk=beee71e3e6d0cb6a</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Data Analytics (Web and Advertising Analytics)</t>
+          <t>AI Product Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extractable</t>
+          <t>Colgate-Palmolive</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>XGBoost, BigQuery, Snowflake, BigQuery, MySQL, Tableau, Power BI, Python, SQL, R</t>
+          <t>Generative AI, LangChain, RAG, Prompt Engineering, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a286e5a815599310</t>
+          <t>https://www.indeed.com/viewjob?jk=284f71660be9ad6f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Software Engineer – Full Stack .NET / AI Developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bonita Springs, FL, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, CI/CD, Git, SQL</t>
+          <t>LangChain, S3, FastAPI, CI/CD, PostgreSQL, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f7e5533daa6ed397</t>
+          <t>https://www.indeed.com/viewjob?jk=f3205827d3d23a6d</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Agentic Security Engineer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ClassLink, Inc.</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Iselin, NJ, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, Copilot, Prompt Engineering, CI/CD, Git, PostgreSQL, Python, SQL, R</t>
+          <t>LangChain, S3, FastAPI, CI/CD, PostgreSQL, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=419d4f931c0cb773</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Heritage Auctions</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Dallas, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LangChain, RAG, TensorFlow, PyTorch, Terraform, Git, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=7198f10001745225</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Product Engineer</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sifted</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>RAG, S3, EC2, CI/CD, GitHub Actions, Terraform, Git, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=8ee7df5cbe03d450</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist, Model Risk &amp; Data Analytics, Internal Audit - AMS</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>New York, NY, US USA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, Hugging Face, TensorFlow, PyTorch, Snowflake, Hadoop, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=fd3b9d9f4471c4ca</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist, Model Risk &amp; Data Analytics, Internal Audit - AMS</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>San Jose, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, Hugging Face, TensorFlow, PyTorch, Snowflake, Hadoop, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=974f4a3a534da030</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SMART Manufacturing AI Engineer</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Westinghouse Electric Company, LLC</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Cranberry Township, PA, US USA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>AI Engineer, Data Scientist, RAG, TensorFlow, PyTorch, Git, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=ce722e5501fba1ea</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Software Engineer IV - Archer SME</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Truist</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>US USA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, Prompt Engineering, CI/CD, Jenkins, Git, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a7e70a43e76f3910</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>DevOps / ML-Ops Engineer</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DeepSig Inc</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Arlington, VA, US USA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>RAG, MLflow, Docker, CI/CD, Terraform, Git, Python, R, Optimization</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=9f4dc741dff506ba</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Front end Software Developer (AWS Programmer)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MED-1 SOLUTIONS</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Greenwood, IN, US USA</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Docker, CI/CD, Jenkins, Git, PostgreSQL, MongoDB, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=67b47ab975ec2952</t>
+          <t>https://www.indeed.com/viewjob?jk=b1ee6c0afe803222</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-27.xlsx
+++ b/daily_matches/job_matches_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,87 +473,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Full-Stack Software Engineer, Manufacturing/R&amp;D Data Platform (NestJS, Next.js, Kafka)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colgate-Palmolive</t>
+          <t>Sakuu Corp</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, Docker, Kubernetes, CI/CD, Git, Python, SQL, R</t>
+          <t>FastAPI, Docker, Kubernetes, CI/CD, GitHub Actions, Git, Kafka, PostgreSQL, MongoDB, Python</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8347260a96645aa2</t>
+          <t>https://www.indeed.com/viewjob?jk=43351bc15987c6d7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INFORMATION TECHNOLOGY SPECIALIST II</t>
+          <t>Senior Software Engineer , Backend - Dining Technology</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>California State Personnel Board</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>13.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, Prompt Engineering, YOLO, Glue, Redshift, CI/CD, Snowflake, Redshift, Power BI, Python</t>
+          <t>Docker, Kubernetes, Jenkins, GitHub Actions, Git, Kafka, MySQL, MongoDB, Python, SQL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=07cbf3a945c9cfd5</t>
+          <t>https://www.indeed.com/viewjob?jk=1a55027269ae2c13</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Database Engineer II</t>
+          <t>Compliance - Technology Operational Risk Management - Data Scientist - Associate</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cvent</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tysons Corner, VA, US USA</t>
+          <t>Plano, TX, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -561,227 +561,122 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, S3, Redshift, Redshift, MySQL, MongoDB, NoSQL, Python, SQL, R</t>
+          <t>Data Scientist, RAG, TensorFlow, AWS SageMaker, Databricks, Tableau, Quicksight, Matplotlib, Python, SQL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8e6a5e86c2af0d5a</t>
+          <t>https://www.indeed.com/viewjob?jk=045a831304ccc9c5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Database Engineer II</t>
+          <t>Senior Associate Analytics Solutions</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cvent</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tysons Corner, VA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, S3, Redshift, Redshift, MySQL, MongoDB, NoSQL, Python, SQL, R</t>
+          <t>Generative AI, RAG, Git, Hadoop, Cassandra, Tableau, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=131e73fa50f53df2</t>
+          <t>https://www.indeed.com/viewjob?jk=416f86049737d8ab</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Data Scientist II</t>
+          <t>Senior Software Engineer - AI Infrastructure</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RealPage Inc</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Richardson, TX, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, CI/CD, Python, SQL, R, Scala</t>
+          <t>RAG, Docker, Terraform, NoSQL, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f825a63f48aaa844</t>
+          <t>https://www.indeed.com/viewjob?jk=6f57588aab62f26d</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Java Full Stack Engineer</t>
+          <t>Software Engineer III- Python / Numpy / Pandas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cincinnati, OH, US USA</t>
+          <t>Jersey City, NJ, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, AKS, CI/CD, GitHub Actions, Git, R, Java, Scala</t>
+          <t>RAG, CI/CD, Jenkins, Git, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=beee71e3e6d0cb6a</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI Product Engineer</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Colgate-Palmolive</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>New York, NY, US USA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Generative AI, LangChain, RAG, Prompt Engineering, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=284f71660be9ad6f</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Charlotte, NC, US USA</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LangChain, S3, FastAPI, CI/CD, PostgreSQL, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=f3205827d3d23a6d</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Iselin, NJ, US USA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LangChain, S3, FastAPI, CI/CD, PostgreSQL, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=b1ee6c0afe803222</t>
+          <t>https://www.indeed.com/viewjob?jk=7ba1ecac7a817c1c</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-27.xlsx
+++ b/daily_matches/job_matches_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,47 +473,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Full-Stack Software Engineer, Manufacturing/R&amp;D Data Platform (NestJS, Next.js, Kafka)</t>
+          <t>Sr Data Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sakuu Corp</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>San Jose, CA, US USA</t>
+          <t>Glendale, CA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.4</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FastAPI, Docker, Kubernetes, CI/CD, GitHub Actions, Git, Kafka, PostgreSQL, MongoDB, Python</t>
+          <t>AI Engineer, Data Scientist, LangChain, RAG, FAISS, Pinecone, S3, Glue, Kinesis, Databricks</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=43351bc15987c6d7</t>
+          <t>https://www.indeed.com/viewjob?jk=6f61d4f9e0de29b6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Software Engineer , Backend - Dining Technology</t>
+          <t>Site Reliability Engineer II</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,161 +522,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Docker, Kubernetes, Jenkins, GitHub Actions, Git, Kafka, MySQL, MongoDB, Python, SQL</t>
+          <t>Data Scientist, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1a55027269ae2c13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Compliance - Technology Operational Risk Management - Data Scientist - Associate</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>JPMorganChase</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Plano, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, TensorFlow, AWS SageMaker, Databricks, Tableau, Quicksight, Matplotlib, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=045a831304ccc9c5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Senior Associate Analytics Solutions</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>JPMorganChase</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>New York, NY, US USA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, Git, Hadoop, Cassandra, Tableau, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=416f86049737d8ab</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer - AI Infrastructure</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Austin, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>RAG, Docker, Terraform, NoSQL, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=6f57588aab62f26d</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Software Engineer III- Python / Numpy / Pandas</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>JPMorganChase</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Jersey City, NJ, US USA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RAG, CI/CD, Jenkins, Git, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=7ba1ecac7a817c1c</t>
+          <t>https://www.indeed.com/viewjob?jk=4420b6c7bc5a59dc</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-27.xlsx
+++ b/daily_matches/job_matches_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sr Data Engineer</t>
+          <t>ML Infrastructure Architect</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Glendale, CA, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>28.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, LangChain, RAG, FAISS, Pinecone, S3, Glue, Kinesis, Databricks</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, ChromaDB, Prompt Engineering, TensorFlow</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6f61d4f9e0de29b6</t>
+          <t>https://www.indeed.com/viewjob?jk=341544bd6730c9ac</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Site Reliability Engineer II</t>
+          <t>ML Infrastructure Architect</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>17.8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +536,567 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4420b6c7bc5a59dc</t>
+          <t>https://www.indeed.com/viewjob?jk=7888b4067300c857</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ML Infrastructure Architect</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, RAG, LLaMA, Hugging Face, TensorFlow, PyTorch, AWS SageMaker, EC2, Docker</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ab4852af3bcf7da0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI Platform Architect</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EisnerAmper</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Philadelphia, PA, US USA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AI Engineer, RAG, Synapse, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Databricks</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=573d09f867190b28</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ML Infrastructure Architect</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Python</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=bd555a41e7235fab</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - Marketplace Foundation</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>San Mateo, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Docker, Kubernetes, Terraform, Git, Kafka, Hadoop, MongoDB, Cassandra, Python, R</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=71b8c7a77228590a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Senior AI Architect</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Enterprise Solutions, INC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>VA, US USA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AI Engineer, Data Scientist, LangChain, RAG, Copilot, Prompt Engineering, FastAPI, Git, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=65fb3cc347cb0a15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Senior IAM Integration Engineer</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RAG, S3, Kinesis, CI/CD, Jenkins, MySQL, MongoDB, Cassandra, NoSQL, SQL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c5e466f53edec490</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Generative AI Intern</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, PyTorch, spaCy, FastAPI, CI/CD, NoSQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=999a9a03ce60c087</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Senior Full Stack Software Engineer (Java)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fannie Mae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Reston, VA, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RAG, S3, EC2, Docker, Terraform, Git, PostgreSQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=69c7ae5b081d04df</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Senior Full Stack Software Engineer (Java)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fannie Mae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Plano, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RAG, S3, EC2, Docker, Terraform, Git, PostgreSQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eeb7bf960c991c04</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DOCSIS Testing Engineer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RAG, spaCy, NLTK, S3, Docker, CI/CD, Git, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8c3b543c75e35edb</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ML Infrastructure Architect</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Python, R, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=53d7fb38ef0d3fd2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Senior Cloud IAM Engineer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RAG, S3, EC2, Docker, CI/CD, Terraform, Python, R, Java</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c05d263dd0ed27da</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Associate Software Engineer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Resmed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RAG, S3, CI/CD, Git, PostgreSQL, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=107e042dfceaa763</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - Cloud Logistics</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nimble Robotics</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Docker, Kubernetes, CI/CD, Terraform, Git, PostgreSQL, SQL, R, Optimization</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ed233de10090bc6a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Engineer, IT, AI Enablement</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Micron Technology</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Boise, ID, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AI Engineer, Data Scientist, Generative AI, RAG, Git, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=681af7ce81f42bf7</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Engineer, IT, AI Enablement</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Micron Technology</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Boise, ID, US USA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AI Engineer, Data Scientist, Generative AI, RAG, Git, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=fb2b68f5ce580b8d</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-27.xlsx
+++ b/daily_matches/job_matches_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,95 +473,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ML Infrastructure Architect</t>
+          <t>SR DATA SCIENTIST, SMART MFG &amp; AI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Micron Technology</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Boise, ID, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28.9</v>
+        <v>26.7</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, ChromaDB, Prompt Engineering, TensorFlow</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, XGBoost, Keras, OpenCV, BigQuery, FastAPI, Docker</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=341544bd6730c9ac</t>
+          <t>https://www.indeed.com/viewjob?jk=12881722cc760412</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ML Infrastructure Architect</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Micron Technology</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Boise, ID, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.8</v>
+        <v>25.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, XGBoost, Keras, BigQuery, FastAPI, Docker, Kubernetes</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7888b4067300c857</t>
+          <t>https://www.indeed.com/viewjob?jk=9088b884cc79245f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ML Infrastructure Architect</t>
+          <t>Senior Data Engineer, Business Intelligence</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Klaviyo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.8</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, LLaMA, Hugging Face, TensorFlow, PyTorch, AWS SageMaker, EC2, Docker</t>
+          <t>RAG, S3, Data Lake, Docker, CI/CD, GitHub Actions, Terraform, Git, Snowflake, Python</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ab4852af3bcf7da0</t>
+          <t>https://www.indeed.com/viewjob?jk=0f39474e07389a32</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AI Platform Architect</t>
+          <t>MLOps Engineer - NO VISA SPONSORSHIP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EisnerAmper</t>
+          <t>ProTalent Finders</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Philadelphia, PA, US USA</t>
+          <t>Fort Worth, TX, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.7</v>
+        <v>15.6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, Synapse, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Databricks</t>
+          <t>AI Engineer, Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, Azure ML, Data Lake, MLflow, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=573d09f867190b28</t>
+          <t>https://www.indeed.com/viewjob?jk=f7d5540e90f82629</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ML Infrastructure Architect</t>
+          <t>Senior Full Stack Developer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Kalamata Capital Group, LLC.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.4</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Python</t>
+          <t>Docker, Kubernetes, CI/CD, GitHub Actions, Git, MongoDB, NoSQL, SQL, R, Java</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=bd555a41e7235fab</t>
+          <t>https://www.indeed.com/viewjob?jk=7e21a53fad2d2bec</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Marketplace Foundation</t>
+          <t>Software Engineer - Video</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Roblox</t>
+          <t>Twilio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>San Mateo, CA, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Docker, Kubernetes, Terraform, Git, Kafka, Hadoop, MongoDB, Cassandra, Python, R</t>
+          <t>RAG, Copilot, CI/CD, Git, Kafka, NoSQL, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=71b8c7a77228590a</t>
+          <t>https://www.indeed.com/viewjob?jk=9a237a79dc97e081</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior AI Architect</t>
+          <t>Technical SEO Engineer (Chicago, IL)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Enterprise Solutions, INC</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, LangChain, RAG, Copilot, Prompt Engineering, FastAPI, Git, Python, SQL</t>
+          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=65fb3cc347cb0a15</t>
+          <t>https://www.indeed.com/viewjob?jk=38710b2e8fbfdc85</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior IAM Integration Engineer</t>
+          <t>Technical SEO Engineer (Dallas, TX)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RAG, S3, Kinesis, CI/CD, Jenkins, MySQL, MongoDB, Cassandra, NoSQL, SQL</t>
+          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,32 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c5e466f53edec490</t>
+          <t>https://www.indeed.com/viewjob?jk=43bdd5164d993eaa</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Generative AI Intern</t>
+          <t>Technical SEO Engineer (Indianapolis, IN)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Indianapolis, IN, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, PyTorch, spaCy, FastAPI, CI/CD, NoSQL, Python, SQL, R</t>
+          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,32 +781,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=999a9a03ce60c087</t>
+          <t>https://www.indeed.com/viewjob?jk=96f0964c1340e086</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Senior Full Stack Software Engineer (Java)</t>
+          <t>Technical SEO Engineer (Charlotte, NC)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fannie Mae</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Reston, VA, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, Docker, Terraform, Git, PostgreSQL, Python, SQL, R</t>
+          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,32 +816,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=69c7ae5b081d04df</t>
+          <t>https://www.indeed.com/viewjob?jk=d65bb7b30a589154</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Full Stack Software Engineer (Java)</t>
+          <t>Technical SEO Engineer (Salk Lake City, UT)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fannie Mae</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Plano, TX, US USA</t>
+          <t>Salt Lake City, UT, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, Docker, Terraform, Git, PostgreSQL, Python, SQL, R</t>
+          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,24 +851,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=eeb7bf960c991c04</t>
+          <t>https://www.indeed.com/viewjob?jk=8022870adb0c65f9</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DOCSIS Testing Engineer</t>
+          <t>Technical SEO Engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -876,7 +876,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RAG, spaCy, NLTK, S3, Docker, CI/CD, Git, Python, SQL, R</t>
+          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8c3b543c75e35edb</t>
+          <t>https://www.indeed.com/viewjob?jk=4148a0a062852dba</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ML Infrastructure Architect</t>
+          <t>Software Engineer - Video</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Twilio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Python, R, Scala, A/B Testing</t>
+          <t>RAG, Copilot, CI/CD, Git, Kafka, NoSQL, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=53d7fb38ef0d3fd2</t>
+          <t>https://www.indeed.com/viewjob?jk=e6902022dae079f0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Senior Cloud IAM Engineer</t>
+          <t>Python Engineer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Realign</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Alpharetta, GA, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, Docker, CI/CD, Terraform, Python, R, Java</t>
+          <t>Data Scientist, TensorFlow, PyTorch, XGBoost, Docker, Kubernetes, CI/CD, Python, R, Optimization</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,19 +956,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c05d263dd0ed27da</t>
+          <t>https://www.indeed.com/viewjob?jk=9031f7ae3ffe7ffe</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Associate Software Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Resmed</t>
+          <t>RogueSearch</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RAG, S3, CI/CD, Git, PostgreSQL, SQL, R, Java, Scala</t>
+          <t>Data Scientist, RAG, Data Lake, Kafka, Python, SQL, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -991,32 +991,32 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=107e042dfceaa763</t>
+          <t>https://www.indeed.com/viewjob?jk=0b30c7e8de15bdeb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Cloud Logistics</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nimble Robotics</t>
+          <t>Bank of America</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Plano, TX, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Docker, Kubernetes, CI/CD, Terraform, Git, PostgreSQL, SQL, R, Optimization</t>
+          <t>Data Scientist, Generative AI, RAG, Git, Cassandra, NoSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1026,59 +1026,59 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ed233de10090bc6a</t>
+          <t>https://www.indeed.com/viewjob?jk=e21305a8178b20fc</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Engineer, IT, AI Enablement</t>
+          <t>Home Loans Senior Data Analyst</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Micron Technology</t>
+          <t>SoFi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Boise, ID, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, RAG, Git, Python, SQL, R, Scala</t>
+          <t>RAG, Redshift, BigQuery, Git, Snowflake, BigQuery, Redshift, R, Scala, A/B Testing</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=681af7ce81f42bf7</t>
+          <t>https://www.indeed.com/viewjob?jk=53d81a40d07ae30f</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Engineer, IT, AI Enablement</t>
+          <t>GEN AI Engineer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Micron Technology</t>
+          <t>Realign</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Boise, ID, US USA</t>
+          <t>Tampa, FL, US USA</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1086,17 +1086,157 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, RAG, Git, Python, SQL, R, Scala</t>
+          <t>AI Engineer, LangChain, RAG, Prompt Engineering, Python, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fb2b68f5ce580b8d</t>
+          <t>https://www.indeed.com/viewjob?jk=08fb5dc63f69fdde</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GEN AI Engineer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Realign</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AI Engineer, LangChain, RAG, Prompt Engineering, Python, R, Java, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=211a24837c2308d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CloudOps Specialist</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TechnoMile</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>McLean, VA, US USA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>S3, EC2, Kubernetes, CI/CD, Terraform, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=0602f10e5c420065</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Senior Linux Firmware Engineer</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Satcon</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Irving, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RAG, Jenkins, Git, MySQL, Python, SQL, R, Java, Optimization</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2ad4f125c916fce4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Applied Machine Learning Scientist I (US)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TD Bank</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, PyTorch, PySpark, Hadoop, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=75ccc609b71b23c4</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-27.xlsx
+++ b/daily_matches/job_matches_2026-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,95 +473,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SR DATA SCIENTIST, SMART MFG &amp; AI</t>
+          <t>Senior AI/ML Developer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Micron Technology</t>
+          <t>Tata Consultancy Services (TCS)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Boise, ID, US USA</t>
+          <t>Irving, TX, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26.7</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, XGBoost, Keras, OpenCV, BigQuery, FastAPI, Docker</t>
+          <t>Generative AI, RAG, TensorFlow, PyTorch, Azure ML, MLflow, FastAPI, Docker, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=12881722cc760412</t>
+          <t>https://www.indeed.com/viewjob?jk=61c8a3c6f4ba6dbe</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Scientist - Growth</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Micron Technology</t>
+          <t>Art of Problem Solving Academy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Boise, ID, US USA</t>
+          <t>San Diego, CA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25.6</v>
+        <v>15.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, XGBoost, Keras, BigQuery, FastAPI, Docker, Kubernetes</t>
+          <t>Data Scientist, Redshift, BigQuery, Snowflake, BigQuery, Redshift, PySpark, Polars, Dask, Tableau</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9088b884cc79245f</t>
+          <t>https://www.indeed.com/viewjob?jk=7683f53bd78d48c5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Data Engineer, Business Intelligence</t>
+          <t>Gen AI Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Klaviyo</t>
+          <t>Tata Consultancy Services (TCS)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Frederick, MD, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, S3, Data Lake, Docker, CI/CD, GitHub Actions, Terraform, Git, Snowflake, Python</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, Azure ML, Docker, Kubernetes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0f39474e07389a32</t>
+          <t>https://www.indeed.com/viewjob?jk=46d11312afda75ac</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MLOps Engineer - NO VISA SPONSORSHIP</t>
+          <t>Senior Software Engineer - CICD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ProTalent Finders</t>
+          <t>Klaviyo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fort Worth, TX, US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, Azure ML, Data Lake, MLflow, Kubernetes, CI/CD</t>
+          <t>RAG, Copilot, Kubernetes, CI/CD, Terraform, Git, Kafka, MySQL, Python, SQL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f7d5540e90f82629</t>
+          <t>https://www.indeed.com/viewjob?jk=f4cd3477fb442eb3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Full Stack Developer</t>
+          <t>Machine Learning Software Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kalamata Capital Group, LLC.</t>
+          <t>Qualcomm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>San Diego, CA, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Docker, Kubernetes, CI/CD, GitHub Actions, Git, MongoDB, NoSQL, SQL, R, Java</t>
+          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, Python</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7e21a53fad2d2bec</t>
+          <t>https://www.indeed.com/viewjob?jk=196dc3bc7f2912cf</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Software Engineer - Video</t>
+          <t>Computer Vision Engineer (Contract)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Twilio</t>
+          <t>Overvak</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, Copilot, CI/CD, Git, Kafka, NoSQL, SQL, R, Java, Scala</t>
+          <t>LangChain, TensorFlow, PyTorch, OpenCV, YOLO, Docker, Kafka, Matplotlib, Python, R</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9a237a79dc97e081</t>
+          <t>https://www.indeed.com/viewjob?jk=25462128ccdcd210</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Technical SEO Engineer (Chicago, IL)</t>
+          <t>AI Architect</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tata Consultancy Services (TCS)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
+          <t>AI Engineer, Data Scientist, LangChain, RAG, TensorFlow, PyTorch, MLflow, Docker, Kubernetes, Python</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=38710b2e8fbfdc85</t>
+          <t>https://www.indeed.com/viewjob?jk=369510cb82d8c982</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Technical SEO Engineer (Dallas, TX)</t>
+          <t>Computer Vision Engineer (Contract)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Overvak</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
+          <t>LangChain, TensorFlow, PyTorch, OpenCV, YOLO, Docker, Kafka, Matplotlib, Python, R</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,32 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=43bdd5164d993eaa</t>
+          <t>https://www.indeed.com/viewjob?jk=f1b4d1a6e61b5656</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Technical SEO Engineer (Indianapolis, IN)</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Halvik</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, US USA</t>
+          <t>Washington, DC, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
+          <t>Redshift, Synapse, Git, Snowflake, Databricks, Redshift, Kafka, Python, SQL, R</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,32 +781,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=96f0964c1340e086</t>
+          <t>https://www.indeed.com/viewjob?jk=89d69e074834d3c5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Technical SEO Engineer (Charlotte, NC)</t>
+          <t>AI Enablement Engineer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>GALAXY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, LLaMA, Copilot, Pinecone, ChromaDB, Git, Python, R</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,32 +816,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d65bb7b30a589154</t>
+          <t>https://www.indeed.com/viewjob?jk=6863ac7bba3e6e79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Technical SEO Engineer (Salk Lake City, UT)</t>
+          <t>Data Science, Intern - Summer 2026, Austin, TX</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
+          <t>Data Scientist, Generative AI, RAG, Copilot, TensorFlow, PyTorch, Git, Kafka, Python, SQL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,19 +851,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8022870adb0c65f9</t>
+          <t>https://www.indeed.com/viewjob?jk=613a16ffa52d1563</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Technical SEO Engineer</t>
+          <t>Senior Analytics Engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Guardian Bikes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -872,11 +872,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LangChain, RAG, CI/CD, Git, Python, SQL, R, Java, Scala, Optimization</t>
+          <t>RAG, Gemini, Copilot, BigQuery, Git, Snowflake, BigQuery, Python, SQL, R</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,67 +886,67 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4148a0a062852dba</t>
+          <t>https://www.indeed.com/viewjob?jk=78011a5d6c324570</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Software Engineer - Video</t>
+          <t>Senior Data Engineer/Scientist</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Twilio</t>
+          <t>Zendar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Berkeley, CA, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, Copilot, CI/CD, Git, Kafka, NoSQL, SQL, R, Java, Scala</t>
+          <t>RAG, BigQuery, Data Lake, Kubernetes, Terraform, BigQuery, NoSQL, Python, SQL, R</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e6902022dae079f0</t>
+          <t>https://www.indeed.com/viewjob?jk=0212cfdc5a2493f3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Python Engineer</t>
+          <t>Autonomous Driving Vehicle Perception Engineer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>Quest Global</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alpharetta, GA, US USA</t>
+          <t>Lansing, MI, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Data Scientist, TensorFlow, PyTorch, XGBoost, Docker, Kubernetes, CI/CD, Python, R, Optimization</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, OpenCV, YOLO, Git, Python, R, Optimization</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9031f7ae3ffe7ffe</t>
+          <t>https://www.indeed.com/viewjob?jk=b37b03f34f658304</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Junior Frontend Developer (Creative + Full-Stack)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RogueSearch</t>
+          <t>Sapphire Media LLC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Scottsdale, AZ, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Data Lake, Kafka, Python, SQL, R, Java, Scala, Optimization</t>
+          <t>RAG, Hugging Face, FastAPI, Docker, Git, MySQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -991,24 +991,24 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0b30c7e8de15bdeb</t>
+          <t>https://www.indeed.com/viewjob?jk=bd450f3d86eff079</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Backend Engineer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bank of America</t>
+          <t>Tenjin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Plano, TX, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, Git, Cassandra, NoSQL, Python, SQL, R, Java</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Git, Kafka, PostgreSQL, SQL, R</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1026,24 +1026,24 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e21305a8178b20fc</t>
+          <t>https://www.indeed.com/viewjob?jk=5ab9bde15f7a07b7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Home Loans Senior Data Analyst</t>
+          <t>Senior Platform Engineer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SoFi</t>
+          <t>Mambu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>Miami, FL, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RAG, Redshift, BigQuery, Git, Snowflake, BigQuery, Redshift, R, Scala, A/B Testing</t>
+          <t>RAG, Kubernetes, CI/CD, Terraform, Git, Power BI, Python, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1061,24 +1061,24 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=53d81a40d07ae30f</t>
+          <t>https://www.indeed.com/viewjob?jk=7d08210831495843</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GEN AI Engineer</t>
+          <t>2026 Intern, Memory and Personalization (Summer)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>Samsung Research America</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tampa, FL, US USA</t>
+          <t>Mountain View, CA, US USA</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, RAG, Prompt Engineering, Python, R, Java, Scala, Optimization</t>
+          <t>TensorFlow, PyTorch, Jenkins, GitHub Actions, Git, Python, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1096,24 +1096,24 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=08fb5dc63f69fdde</t>
+          <t>https://www.indeed.com/viewjob?jk=038e06c5fa27ee8e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GEN AI Engineer</t>
+          <t>Intern - AI Software QA Engineer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>Fremont Bank</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>Livermore, CA, US USA</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1121,34 +1121,34 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, RAG, Prompt Engineering, Python, R, Java, Scala, Optimization</t>
+          <t>Generative AI, RAG, Hugging Face, Prompt Engineering, CI/CD, Git, Python, R, Optimization</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=211a24837c2308d1</t>
+          <t>https://www.indeed.com/viewjob?jk=2e20f3e88254de62</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CloudOps Specialist</t>
+          <t>Software Engineer - Ford Pro Tech</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TechnoMile</t>
+          <t>Ford Motor Company</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>McLean, VA, US USA</t>
+          <t>Spokane Valley, WA, US USA</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S3, EC2, Kubernetes, CI/CD, Terraform, Python, R, Scala, Optimization</t>
+          <t>RAG, CI/CD, Jenkins, Terraform, NoSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1166,77 +1166,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0602f10e5c420065</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Senior Linux Firmware Engineer</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Satcon</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Irving, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>RAG, Jenkins, Git, MySQL, Python, SQL, R, Java, Optimization</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=2ad4f125c916fce4</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Applied Machine Learning Scientist I (US)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TD Bank</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>New York, NY, US USA</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Generative AI, LangChain, RAG, PyTorch, PySpark, Hadoop, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=75ccc609b71b23c4</t>
+          <t>https://www.indeed.com/viewjob?jk=10daa7f62943c1b3</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-27.xlsx
+++ b/daily_matches/job_matches_2026-02-27.xlsx
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior AI/ML Developer</t>
+          <t>DevOps Engineer III</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services (TCS)</t>
+          <t>Cleerly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Irving, TX, US USA</t>
+          <t>Denver, CO, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>16.7</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, TensorFlow, PyTorch, Azure ML, MLflow, FastAPI, Docker, Kubernetes, CI/CD</t>
+          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, PostgreSQL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,14 +501,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=61c8a3c6f4ba6dbe</t>
+          <t>https://www.indeed.com/viewjob?jk=e56f4ee4c4c94216</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data Scientist - Growth</t>
+          <t>Senior Data Scientist - Product</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -522,11 +522,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, Redshift, BigQuery, Snowflake, BigQuery, Redshift, PySpark, Polars, Dask, Tableau</t>
+          <t>Data Scientist, Redshift, BigQuery, Git, Snowflake, BigQuery, Redshift, PySpark, Polars, Dask</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7683f53bd78d48c5</t>
+          <t>https://www.indeed.com/viewjob?jk=60462ec1b41e6c17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gen AI Engineer</t>
+          <t>Software Engineer II</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services (TCS)</t>
+          <t>Availity, LLC.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Frederick, MD, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, Azure ML, Docker, Kubernetes</t>
+          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Terraform, Git, PostgreSQL, MySQL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,24 +571,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=46d11312afda75ac</t>
+          <t>https://www.indeed.com/viewjob?jk=21fc3ea476dd4728</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - CICD</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Klaviyo</t>
+          <t>Health-E Commerce</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Kubernetes, CI/CD, Terraform, Git, Kafka, MySQL, Python, SQL</t>
+          <t>Data Scientist, BigQuery, Synapse, Apache Airflow, Git, Snowflake, Databricks, BigQuery, Python, SQL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f4cd3477fb442eb3</t>
+          <t>https://www.indeed.com/viewjob?jk=ec27c4fa8782043e</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Machine Learning Software Engineer</t>
+          <t>Databricks Senior Data Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qualcomm</t>
+          <t>OZ Digital</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>San Diego, CA, US USA</t>
+          <t>Boca Raton, FL, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, Python</t>
+          <t>RAG, CI/CD, Git, Snowflake, Databricks, PySpark, Kafka, Python, SQL, R</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,24 +641,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=196dc3bc7f2912cf</t>
+          <t>https://www.indeed.com/viewjob?jk=86a35b352ed2af92</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Computer Vision Engineer (Contract)</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Overvak</t>
+          <t>Interwell Health</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -666,7 +666,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LangChain, TensorFlow, PyTorch, OpenCV, YOLO, Docker, Kafka, Matplotlib, Python, R</t>
+          <t>Machine Learning Engineer, RAG, Prompt Engineering, Data Lake, AKS, CI/CD, Databricks, Python, SQL, R</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=25462128ccdcd210</t>
+          <t>https://www.indeed.com/viewjob?jk=888cf31c19138b41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AI Architect</t>
+          <t>Senior Quality Software Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services (TCS)</t>
+          <t>Transamerica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Denver, CO, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, LangChain, RAG, TensorFlow, PyTorch, MLflow, Docker, Kubernetes, Python</t>
+          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Jenkins, Git, SQL, R</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,24 +711,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=369510cb82d8c982</t>
+          <t>https://www.indeed.com/viewjob?jk=a424e0d64dae1bfe</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Computer Vision Engineer (Contract)</t>
+          <t>Software Engineer – Full Stack .NET / AI Developer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Overvak</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Bonita Springs, FL, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LangChain, TensorFlow, PyTorch, OpenCV, YOLO, Docker, Kafka, Matplotlib, Python, R</t>
+          <t>RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, CI/CD, Git, SQL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,32 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f1b4d1a6e61b5656</t>
+          <t>https://www.indeed.com/viewjob?jk=348a16c449f4600c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>AI Software Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Halvik</t>
+          <t>Buyers Edge Platform</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Washington, DC, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Redshift, Synapse, Git, Snowflake, Databricks, Redshift, Kafka, Python, SQL, R</t>
+          <t>Data Scientist, RAG, Docker, CI/CD, Git, PostgreSQL, MySQL, Python, SQL, R</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=89d69e074834d3c5</t>
+          <t>https://www.indeed.com/viewjob?jk=dec17c54c6cf53d9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AI Enablement Engineer</t>
+          <t>Senior Software Engineer, Member AI Features</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GALAXY</t>
+          <t>SoFi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Generative AI, RAG, LLaMA, Copilot, Pinecone, ChromaDB, Git, Python, R</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, Git, Kafka, PostgreSQL, SQL, R, Java</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,24 +816,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6863ac7bba3e6e79</t>
+          <t>https://www.indeed.com/viewjob?jk=bfffdbe40afac374</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Data Science, Intern - Summer 2026, Austin, TX</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>SoFi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>Frisco, TX, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, Copilot, TensorFlow, PyTorch, Git, Kafka, Python, SQL</t>
+          <t>Data Scientist, RAG, Redshift, Git, Snowflake, Redshift, PostgreSQL, Python, SQL, R</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,24 +851,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=613a16ffa52d1563</t>
+          <t>https://www.indeed.com/viewjob?jk=991ff35a7c2f8bc5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Senior Analytics Engineer</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Guardian Bikes</t>
+          <t>SoFi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Frisco, TX, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -876,7 +876,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RAG, Gemini, Copilot, BigQuery, Git, Snowflake, BigQuery, Python, SQL, R</t>
+          <t>Data Scientist, RAG, Redshift, Git, Snowflake, Redshift, PostgreSQL, Python, SQL, R</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=78011a5d6c324570</t>
+          <t>https://www.indeed.com/viewjob?jk=8b899c29e2338bfc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Senior Data Engineer/Scientist</t>
+          <t>AI Enablement Data Engineer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Zendar</t>
+          <t>IDEXX Laboratories</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Berkeley, CA, US USA</t>
+          <t>Westbrook, ME, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -911,42 +911,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Kubernetes, Terraform, BigQuery, NoSQL, Python, SQL, R</t>
+          <t>Data Scientist, RAG, Data Lake, CI/CD, Git, Snowflake, Databricks, PySpark, Python, SQL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0212cfdc5a2493f3</t>
+          <t>https://www.indeed.com/viewjob?jk=eed16d28c472ffad</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Autonomous Driving Vehicle Perception Engineer</t>
+          <t>Consultant Analytical Engineer Expanse</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Quest Global</t>
+          <t>HCA Healthcare</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lansing, MI, US USA</t>
+          <t>Nashville, TN, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, OpenCV, YOLO, Git, Python, R, Optimization</t>
+          <t>RAG, Redshift, Redshift, Hadoop, Tableau, Power BI, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b37b03f34f658304</t>
+          <t>https://www.indeed.com/viewjob?jk=b0fea71c4ade6bd2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Junior Frontend Developer (Creative + Full-Stack)</t>
+          <t>Sr. Analyst, Data &amp; Research</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sapphire Media LLC</t>
+          <t>Warner Music Group</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Scottsdale, AZ, US USA</t>
+          <t>Nashville, TN, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RAG, Hugging Face, FastAPI, Docker, Git, MySQL, Python, SQL, R, Java</t>
+          <t>RAG, BigQuery, Git, Snowflake, BigQuery, Tableau, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -991,24 +991,24 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=bd450f3d86eff079</t>
+          <t>https://www.indeed.com/viewjob?jk=2c05d60c76967e19</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer</t>
+          <t>AI Engineer - Agent Automation</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tenjin</t>
+          <t>Zoom Communications</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Git, Kafka, PostgreSQL, SQL, R</t>
+          <t>AI Engineer, LangChain, RAG, Prompt Engineering, PyTorch, Docker, Kubernetes, Python, R, Java</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1026,32 +1026,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5ab9bde15f7a07b7</t>
+          <t>https://www.indeed.com/viewjob?jk=f5af786d5985c54f</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Senior Platform Engineer</t>
+          <t>Sr. AI Software Engineer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mambu</t>
+          <t>Technoviz LLC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Miami, FL, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RAG, Kubernetes, CI/CD, Terraform, Git, Power BI, Python, R, Scala, Optimization</t>
+          <t>LangChain, RAG, Hugging Face, Docker, Kubernetes, Git, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1061,24 +1061,24 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7d08210831495843</t>
+          <t>https://www.indeed.com/viewjob?jk=c72678b7c20061ce</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026 Intern, Memory and Personalization (Summer)</t>
+          <t>GTM Analytics Engineer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Samsung Research America</t>
+          <t>Gusto</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mountain View, CA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TensorFlow, PyTorch, Jenkins, GitHub Actions, Git, Python, R, Scala, Optimization</t>
+          <t>Redshift, Git, Snowflake, Redshift, Tableau, Python, SQL, R, Optimization</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1096,24 +1096,24 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=038e06c5fa27ee8e</t>
+          <t>https://www.indeed.com/viewjob?jk=ba485f3b26852488</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intern - AI Software QA Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fremont Bank</t>
+          <t>The Home Depot</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Livermore, CA, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1121,34 +1121,34 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Hugging Face, Prompt Engineering, CI/CD, Git, Python, R, Optimization</t>
+          <t>Data Scientist, RAG, BigQuery, BigQuery, Tableau, Python, SQL, R, Optimization</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2e20f3e88254de62</t>
+          <t>https://www.indeed.com/viewjob?jk=f0dffbe9c159b120</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Software Engineer - Ford Pro Tech</t>
+          <t>AI / ML Engineer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ford Motor Company</t>
+          <t>Third Way Health, Inc.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Spokane Valley, WA, US USA</t>
+          <t>Cambridge, MA, US USA</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RAG, CI/CD, Jenkins, Terraform, NoSQL, Python, SQL, R, Java</t>
+          <t>Data Scientist, RAG, PyTorch, Kinesis, MLflow, CI/CD, Kafka, Python, R</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=10daa7f62943c1b3</t>
+          <t>https://www.indeed.com/viewjob?jk=01b8d0cbb789aae6</t>
         </is>
       </c>
     </row>
